--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1943"/>
+  <dimension ref="A1:G1909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50805,10 +50805,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -50842,10 +50840,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -50879,10 +50875,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -50912,10 +50906,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -50949,10 +50941,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -50986,10 +50976,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1854">
@@ -51019,10 +51007,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1855">
@@ -51056,10 +51042,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -51089,10 +51073,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -51126,10 +51108,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -51155,10 +51135,8 @@
       </c>
       <c r="E1858" t="inlineStr"/>
       <c r="F1858" t="inlineStr"/>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -51184,10 +51162,8 @@
       </c>
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -51213,10 +51189,8 @@
       </c>
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -51242,10 +51216,8 @@
       </c>
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -51275,44 +51247,54 @@
         </is>
       </c>
       <c r="F1862" t="inlineStr"/>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1863" t="inlineStr"/>
+          <t>07:40 PM</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+        </is>
+      </c>
       <c r="C1863" t="inlineStr"/>
-      <c r="D1863" t="inlineStr"/>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
-      <c r="G1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="G1863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/30</t>
-        </is>
-      </c>
-      <c r="C1864" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr"/>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>4.435%</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr"/>
@@ -51324,98 +51306,58 @@
       </c>
     </row>
     <row r="1865">
-      <c r="A1865" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1865" t="inlineStr"/>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>LMI Logistics Managers IndexAPR</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr"/>
+      <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Unemployment RateAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 07 2025</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
+      <c r="E1866" t="inlineStr"/>
+      <c r="F1866" t="inlineStr"/>
+      <c r="G1866" t="inlineStr"/>
     </row>
     <row r="1867">
       <c r="A1867" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1867" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>API Crude Oil Stock ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr"/>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.76M</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr"/>
+      <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr">
         <is>
           <t>2</t>
@@ -51425,30 +51367,22 @@
     <row r="1868">
       <c r="A1868" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1868" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1868" t="inlineStr"/>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr"/>
+      <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr">
         <is>
           <t>2</t>
@@ -51458,59 +51392,47 @@
     <row r="1869">
       <c r="A1869" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr"/>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr"/>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr"/>
+      <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr">
         <is>
           <t>3</t>
@@ -51520,26 +51442,22 @@
     <row r="1871">
       <c r="A1871" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1871" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1871" t="inlineStr"/>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>649.0</t>
         </is>
       </c>
       <c r="E1871" t="inlineStr"/>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr">
         <is>
           <t>3</t>
@@ -51549,30 +51467,22 @@
     <row r="1872">
       <c r="A1872" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr"/>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>146.6</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr"/>
+      <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr">
         <is>
           <t>3</t>
@@ -51582,121 +51492,97 @@
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr"/>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1873" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr"/>
+      <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr"/>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr"/>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1875" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1875" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr"/>
+      <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr"/>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.682M</t>
         </is>
       </c>
       <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr">
         <is>
           <t>3</t>
@@ -51706,18 +51592,18 @@
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr"/>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -51731,18 +51617,18 @@
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1878" t="inlineStr"/>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.937M</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr"/>
@@ -51754,23 +51640,23 @@
       </c>
     </row>
     <row r="1879">
-      <c r="A1879" t="inlineStr"/>
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr"/>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>-0.616M</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr">
         <is>
@@ -51781,56 +51667,72 @@
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>Saturday May 03 2025</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr"/>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>0.252M</t>
+        </is>
+      </c>
       <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr"/>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1881">
       <c r="A1881" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>0.189M</t>
+        </is>
+      </c>
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1882" t="inlineStr"/>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr"/>
+      <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr">
         <is>
           <t>3</t>
@@ -51840,63 +51742,47 @@
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr"/>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr"/>
       <c r="F1883" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1884" t="inlineStr"/>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="F1884" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr"/>
+      <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr">
         <is>
           <t>1</t>
@@ -51904,113 +51790,81 @@
       </c>
     </row>
     <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1885" t="inlineStr"/>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr"/>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+      <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr"/>
       <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="D1886" t="inlineStr"/>
       <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1886" t="inlineStr"/>
+      <c r="G1886" t="inlineStr"/>
     </row>
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="D1887" t="inlineStr"/>
       <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>49.2</t>
-        </is>
-      </c>
+      <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr"/>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>$-0.81B</t>
         </is>
       </c>
       <c r="E1888" t="inlineStr"/>
       <c r="F1888" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1888" t="inlineStr">
@@ -52022,90 +51876,118 @@
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr"/>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr"/>
+      <c r="F1889" t="inlineStr">
+        <is>
+          <t>246.0K</t>
+        </is>
+      </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr"/>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr"/>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr"/>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>3.784%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsAPR/26</t>
+        </is>
+      </c>
       <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr"/>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>1916K</t>
+        </is>
+      </c>
       <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
-      <c r="G1892" t="inlineStr"/>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>1921.0K</t>
+        </is>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
@@ -52115,108 +51997,104 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr"/>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
+          <t>226K</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr"/>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>231.5K</t>
         </is>
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr"/>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>$280.5B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>$401.1B</t>
-        </is>
-      </c>
+      <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr"/>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G1896" t="inlineStr">
         <is>
           <t>3</t>
@@ -52226,26 +52104,22 @@
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr"/>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr">
         <is>
           <t>3</t>
@@ -52255,18 +52129,18 @@
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr"/>
       <c r="D1898" t="inlineStr">
         <is>
-          <t>4.435%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1898" t="inlineStr"/>
@@ -52278,16 +52152,20 @@
       </c>
     </row>
     <row r="1899">
-      <c r="A1899" t="inlineStr"/>
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexAPR</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr"/>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E1899" t="inlineStr"/>
@@ -52301,81 +52179,81 @@
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/08</t>
+        </is>
+      </c>
       <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr"/>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr"/>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr"/>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>3.76M</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr"/>
       <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1902" t="inlineStr"/>
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1902" t="inlineStr"/>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1903" t="inlineStr"/>
       <c r="D1903" t="inlineStr">
         <is>
-          <t>-4.2%</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1903" t="inlineStr"/>
@@ -52389,45 +52267,37 @@
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
+      <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr">
@@ -52439,20 +52309,16 @@
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
+      <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr">
@@ -52464,879 +52330,41 @@
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Saturday May 10 2025</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr"/>
       <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
+      <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr"/>
       <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1907" t="inlineStr"/>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr"/>
       <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
+      <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr"/>
       <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1908" t="inlineStr"/>
     </row>
     <row r="1909">
       <c r="A1909" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Monday May 12 2025</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr"/>
       <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
+      <c r="D1909" t="inlineStr"/>
       <c r="E1909" t="inlineStr"/>
       <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr"/>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr"/>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr"/>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr"/>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr"/>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr"/>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr"/>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr">
-        <is>
-          <t>241K</t>
-        </is>
-      </c>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr">
-        <is>
-          <t>246.0K</t>
-        </is>
-      </c>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>1916K</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>1921.0K</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr"/>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsAPR</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1933" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1933" t="inlineStr"/>
-      <c r="D1933" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E1933" t="inlineStr"/>
-      <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1934" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1934" t="inlineStr"/>
-      <c r="D1934" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1935" t="inlineStr"/>
-      <c r="D1935" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1936" t="inlineStr"/>
-      <c r="C1936" t="inlineStr"/>
-      <c r="D1936" t="inlineStr"/>
-      <c r="E1936" t="inlineStr"/>
-      <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr"/>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
-      <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1938" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C1938" t="inlineStr"/>
-      <c r="D1938" t="inlineStr"/>
-      <c r="E1938" t="inlineStr"/>
-      <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1939" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1939" t="inlineStr"/>
-      <c r="D1939" t="inlineStr"/>
-      <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1940" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1940" t="inlineStr"/>
-      <c r="D1940" t="inlineStr"/>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" t="inlineStr">
-        <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1941" t="inlineStr"/>
-      <c r="C1941" t="inlineStr"/>
-      <c r="D1941" t="inlineStr"/>
-      <c r="E1941" t="inlineStr"/>
-      <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr"/>
-    </row>
-    <row r="1942">
-      <c r="A1942" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1942" t="inlineStr"/>
-      <c r="C1942" t="inlineStr"/>
-      <c r="D1942" t="inlineStr"/>
-      <c r="E1942" t="inlineStr"/>
-      <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr"/>
-    </row>
-    <row r="1943">
-      <c r="A1943" t="inlineStr">
-        <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1943" t="inlineStr"/>
-      <c r="C1943" t="inlineStr"/>
-      <c r="D1943" t="inlineStr"/>
-      <c r="E1943" t="inlineStr"/>
-      <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr"/>
+      <c r="G1909" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1946"/>
+  <dimension ref="A1:G1951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51837,48 +51837,36 @@
     <row r="1884">
       <c r="A1884" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1884" t="inlineStr"/>
+          <t>10:20 PM</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr"/>
       <c r="E1884" t="inlineStr"/>
       <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr"/>
+      <c r="G1884" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1885">
       <c r="A1885" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
-        </is>
-      </c>
+          <t>Monday May 05 2025</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr"/>
       <c r="C1885" t="inlineStr"/>
-      <c r="D1885" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1885" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1885" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1885" t="inlineStr"/>
+      <c r="E1885" t="inlineStr"/>
+      <c r="F1885" t="inlineStr"/>
+      <c r="G1885" t="inlineStr"/>
     </row>
     <row r="1886">
       <c r="A1886" t="inlineStr">
@@ -51888,23 +51876,23 @@
       </c>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>S&amp;P Global Composite PMI FinalAPR</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr"/>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E1886" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1886" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="G1886" t="inlineStr">
@@ -51916,33 +51904,33 @@
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>S&amp;P Global Services PMI FinalAPR</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr"/>
       <c r="D1887" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E1887" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F1887" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51954,24 +51942,28 @@
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>ISM Services PMIAPR</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr"/>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>55.9</t>
-        </is>
-      </c>
-      <c r="E1888" t="inlineStr"/>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="E1888" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
       <c r="F1888" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51983,19 +51975,19 @@
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>ISM Services Business ActivityAPR</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr"/>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E1889" t="inlineStr"/>
       <c r="F1889" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="G1889" t="inlineStr">
@@ -52012,19 +52004,19 @@
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>ISM Services EmploymentAPR</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr"/>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E1890" t="inlineStr"/>
       <c r="F1890" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1890" t="inlineStr">
@@ -52041,19 +52033,19 @@
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>ISM Services New OrdersAPR</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr"/>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="E1891" t="inlineStr"/>
       <c r="F1891" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="G1891" t="inlineStr">
@@ -52065,22 +52057,26 @@
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1892" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Services PricesAPR</t>
         </is>
       </c>
       <c r="C1892" t="inlineStr"/>
       <c r="D1892" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>61.2</t>
+        </is>
+      </c>
       <c r="G1892" t="inlineStr">
         <is>
           <t>3</t>
@@ -52095,13 +52091,13 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr"/>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="E1893" t="inlineStr"/>
@@ -52115,18 +52111,18 @@
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr"/>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>3.784%</t>
+          <t>4.065%</t>
         </is>
       </c>
       <c r="E1894" t="inlineStr"/>
@@ -52140,48 +52136,40 @@
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1895" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr"/>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>3.784%</t>
+        </is>
+      </c>
       <c r="E1895" t="inlineStr"/>
       <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr"/>
+      <c r="G1895" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>Balance of TradeMAR</t>
-        </is>
-      </c>
+          <t>Tuesday May 06 2025</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr"/>
       <c r="C1896" t="inlineStr"/>
-      <c r="D1896" t="inlineStr">
-        <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1896" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="F1896" t="inlineStr">
-        <is>
-          <t>$-137.1B</t>
-        </is>
-      </c>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1896" t="inlineStr"/>
+      <c r="E1896" t="inlineStr"/>
+      <c r="F1896" t="inlineStr"/>
+      <c r="G1896" t="inlineStr"/>
     </row>
     <row r="1897">
       <c r="A1897" t="inlineStr">
@@ -52191,19 +52179,23 @@
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>Balance of TradeMAR</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr"/>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
-      <c r="E1897" t="inlineStr"/>
+          <t>$-122.7B</t>
+        </is>
+      </c>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>$-129B</t>
+        </is>
+      </c>
       <c r="F1897" t="inlineStr">
         <is>
-          <t>$280.5B</t>
+          <t>$-137.1B</t>
         </is>
       </c>
       <c r="G1897" t="inlineStr">
@@ -52220,19 +52212,19 @@
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>ExportsMAR</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr"/>
       <c r="D1898" t="inlineStr">
         <is>
-          <t>$401.1B</t>
+          <t>$278.5B</t>
         </is>
       </c>
       <c r="E1898" t="inlineStr"/>
       <c r="F1898" t="inlineStr">
         <is>
-          <t>$417.6B</t>
+          <t>$280.5B</t>
         </is>
       </c>
       <c r="G1898" t="inlineStr">
@@ -52244,51 +52236,51 @@
     <row r="1899">
       <c r="A1899" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>ImportsMAR</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr"/>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>$401.1B</t>
         </is>
       </c>
       <c r="E1899" t="inlineStr"/>
-      <c r="F1899" t="inlineStr"/>
+      <c r="F1899" t="inlineStr">
+        <is>
+          <t>$417.6B</t>
+        </is>
+      </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>Redbook YoYMAY/03</t>
         </is>
       </c>
       <c r="C1900" t="inlineStr"/>
       <c r="D1900" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1900" t="inlineStr"/>
       <c r="G1900" t="inlineStr">
         <is>
           <t>3</t>
@@ -52298,22 +52290,26 @@
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:40 PM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexMAY</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr"/>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>4.435%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E1901" t="inlineStr"/>
-      <c r="F1901" t="inlineStr"/>
+      <c r="F1901" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
       <c r="G1901" t="inlineStr">
         <is>
           <t>3</t>
@@ -52321,16 +52317,20 @@
       </c>
     </row>
     <row r="1902">
-      <c r="A1902" t="inlineStr"/>
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexAPR</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C1902" t="inlineStr"/>
       <c r="D1902" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>4.435%</t>
         </is>
       </c>
       <c r="E1902" t="inlineStr"/>
@@ -52342,58 +52342,54 @@
       </c>
     </row>
     <row r="1903">
-      <c r="A1903" t="inlineStr">
-        <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr"/>
+      <c r="A1903" t="inlineStr"/>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexAPR</t>
+        </is>
+      </c>
       <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr"/>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
+      </c>
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr"/>
+      <c r="G1903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Wednesday May 07 2025</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr"/>
       <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>3.76M</t>
-        </is>
-      </c>
+      <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1904" t="inlineStr"/>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
+          <t>API Crude Oil Stock ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr"/>
       <c r="D1905" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>3.76M</t>
         </is>
       </c>
       <c r="E1905" t="inlineStr"/>
@@ -52412,20 +52408,20 @@
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr"/>
       <c r="D1906" t="inlineStr">
         <is>
-          <t>-4.2%</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52437,13 +52433,13 @@
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1907" t="inlineStr"/>
       <c r="D1907" t="inlineStr">
         <is>
-          <t>223.7</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="E1907" t="inlineStr"/>
@@ -52462,13 +52458,13 @@
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1908" t="inlineStr"/>
       <c r="D1908" t="inlineStr">
         <is>
-          <t>649.0</t>
+          <t>223.7</t>
         </is>
       </c>
       <c r="E1908" t="inlineStr"/>
@@ -52487,13 +52483,13 @@
       </c>
       <c r="B1909" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/02</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1909" t="inlineStr"/>
       <c r="D1909" t="inlineStr">
         <is>
-          <t>146.6</t>
+          <t>649.0</t>
         </is>
       </c>
       <c r="E1909" t="inlineStr"/>
@@ -52507,25 +52503,25 @@
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1910" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1910" t="inlineStr"/>
       <c r="D1910" t="inlineStr">
         <is>
-          <t>-2.696M</t>
+          <t>146.6</t>
         </is>
       </c>
       <c r="E1910" t="inlineStr"/>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52537,13 +52533,13 @@
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr"/>
       <c r="D1911" t="inlineStr">
         <is>
-          <t>-4.002M</t>
+          <t>-2.696M</t>
         </is>
       </c>
       <c r="E1911" t="inlineStr"/>
@@ -52562,20 +52558,20 @@
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr"/>
       <c r="D1912" t="inlineStr">
         <is>
-          <t>-0.663M</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1912" t="inlineStr"/>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52587,13 +52583,13 @@
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1913" t="inlineStr"/>
       <c r="D1913" t="inlineStr">
         <is>
-          <t>0.682M</t>
+          <t>-0.663M</t>
         </is>
       </c>
       <c r="E1913" t="inlineStr"/>
@@ -52612,13 +52608,13 @@
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr"/>
       <c r="D1914" t="inlineStr">
         <is>
-          <t>-0.017M</t>
+          <t>0.682M</t>
         </is>
       </c>
       <c r="E1914" t="inlineStr"/>
@@ -52637,13 +52633,13 @@
       </c>
       <c r="B1915" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1915" t="inlineStr"/>
       <c r="D1915" t="inlineStr">
         <is>
-          <t>0.937M</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1915" t="inlineStr"/>
@@ -52662,13 +52658,13 @@
       </c>
       <c r="B1916" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1916" t="inlineStr"/>
       <c r="D1916" t="inlineStr">
         <is>
-          <t>-0.616M</t>
+          <t>0.937M</t>
         </is>
       </c>
       <c r="E1916" t="inlineStr"/>
@@ -52687,13 +52683,13 @@
       </c>
       <c r="B1917" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1917" t="inlineStr"/>
       <c r="D1917" t="inlineStr">
         <is>
-          <t>0.252M</t>
+          <t>-0.616M</t>
         </is>
       </c>
       <c r="E1917" t="inlineStr"/>
@@ -52712,13 +52708,13 @@
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr"/>
       <c r="D1918" t="inlineStr">
         <is>
-          <t>0.189M</t>
+          <t>0.252M</t>
         </is>
       </c>
       <c r="E1918" t="inlineStr"/>
@@ -52732,18 +52728,18 @@
     <row r="1919">
       <c r="A1919" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr"/>
       <c r="D1919" t="inlineStr">
         <is>
-          <t>4.190%</t>
+          <t>0.189M</t>
         </is>
       </c>
       <c r="E1919" t="inlineStr"/>
@@ -52757,47 +52753,51 @@
     <row r="1920">
       <c r="A1920" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1920" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1920" t="inlineStr"/>
       <c r="D1920" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>4.190%</t>
         </is>
       </c>
       <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1921">
-      <c r="A1921" t="inlineStr"/>
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMAPR</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr"/>
       <c r="D1921" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
+      <c r="F1921" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1921" t="inlineStr">
         <is>
           <t>1</t>
@@ -52808,13 +52808,13 @@
       <c r="A1922" t="inlineStr"/>
       <c r="B1922" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1922" t="inlineStr"/>
       <c r="D1922" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E1922" t="inlineStr"/>
@@ -52826,102 +52826,90 @@
       </c>
     </row>
     <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr"/>
+      <c r="A1923" t="inlineStr"/>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYAPR</t>
+        </is>
+      </c>
       <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr"/>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="E1923" t="inlineStr"/>
       <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr"/>
+      <c r="G1923" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1924">
       <c r="A1924" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr"/>
       <c r="C1924" t="inlineStr"/>
       <c r="D1924" t="inlineStr"/>
       <c r="E1924" t="inlineStr"/>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G1924" t="inlineStr"/>
     </row>
     <row r="1925">
       <c r="A1925" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeMAR</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr">
-        <is>
-          <t>$9.9B</t>
-        </is>
-      </c>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
+      <c r="D1925" t="inlineStr"/>
+      <c r="E1925" t="inlineStr"/>
+      <c r="F1925" t="inlineStr"/>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr"/>
       <c r="D1926" t="inlineStr">
         <is>
-          <t>241K</t>
+          <t>$-0.81B</t>
         </is>
       </c>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>235K</t>
+          <t>$9.9B</t>
         </is>
       </c>
       <c r="F1926" t="inlineStr">
         <is>
-          <t>246.0K</t>
+          <t>$7.0B</t>
         </is>
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52933,23 +52921,23 @@
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr"/>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>235K</t>
         </is>
       </c>
       <c r="F1927" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>240.0K</t>
         </is>
       </c>
       <c r="G1927" t="inlineStr">
@@ -52966,23 +52954,23 @@
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr"/>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1928" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="G1928" t="inlineStr">
@@ -52999,24 +52987,28 @@
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr"/>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>1916K</t>
-        </is>
-      </c>
-      <c r="E1929" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>5.3%</t>
+        </is>
+      </c>
       <c r="F1929" t="inlineStr">
         <is>
-          <t>1921.0K</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53028,19 +53020,19 @@
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr"/>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>226K</t>
+          <t>1916K</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr"/>
       <c r="F1930" t="inlineStr">
         <is>
-          <t>231.5K</t>
+          <t>1921.0K</t>
         </is>
       </c>
       <c r="G1930" t="inlineStr">
@@ -53052,28 +53044,24 @@
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMMAR</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr"/>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1931" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>226K</t>
+        </is>
+      </c>
+      <c r="E1931" t="inlineStr"/>
       <c r="F1931" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G1931" t="inlineStr">
@@ -53085,18 +53073,30 @@
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1932" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1932" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1932" t="inlineStr">
         <is>
           <t>3</t>
@@ -53106,26 +53106,18 @@
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr"/>
-      <c r="D1933" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="D1933" t="inlineStr"/>
       <c r="E1933" t="inlineStr"/>
-      <c r="F1933" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr">
         <is>
           <t>3</t>
@@ -53135,22 +53127,26 @@
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr"/>
       <c r="D1934" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
+      <c r="F1934" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G1934" t="inlineStr">
         <is>
           <t>3</t>
@@ -53165,13 +53161,13 @@
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr"/>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1935" t="inlineStr"/>
@@ -53185,18 +53181,18 @@
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/08</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr"/>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1936" t="inlineStr"/>
@@ -53215,13 +53211,13 @@
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/08</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr"/>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E1937" t="inlineStr"/>
@@ -53235,18 +53231,18 @@
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>30-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr"/>
       <c r="D1938" t="inlineStr">
         <is>
-          <t>4.813%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1938" t="inlineStr"/>
@@ -53260,71 +53256,75 @@
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1939" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="C1939" t="inlineStr"/>
-      <c r="D1939" t="inlineStr"/>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>4.813%</t>
+        </is>
+      </c>
       <c r="E1939" t="inlineStr"/>
       <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr"/>
+      <c r="G1939" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1940" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr"/>
       <c r="C1940" t="inlineStr"/>
-      <c r="D1940" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
+      <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr"/>
       <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1940" t="inlineStr"/>
     </row>
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr"/>
-      <c r="D1941" t="inlineStr"/>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>$6.71T</t>
+        </is>
+      </c>
       <c r="E1941" t="inlineStr"/>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>03:45 PM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr"/>
@@ -53333,19 +53333,19 @@
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr"/>
@@ -53354,48 +53354,153 @@
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1944" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C1944" t="inlineStr"/>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr"/>
       <c r="F1944" t="inlineStr"/>
-      <c r="G1944" t="inlineStr"/>
+      <c r="G1944" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1945" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
+        </is>
+      </c>
       <c r="C1945" t="inlineStr"/>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr"/>
+      <c r="G1945" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1946" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
+        </is>
+      </c>
       <c r="C1946" t="inlineStr"/>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr"/>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>Saturday May 10 2025</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr"/>
+      <c r="C1947" t="inlineStr"/>
+      <c r="D1947" t="inlineStr"/>
+      <c r="E1947" t="inlineStr"/>
+      <c r="F1947" t="inlineStr"/>
+      <c r="G1947" t="inlineStr"/>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>05:15 AM</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>Fed Hammack Speech</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr"/>
+      <c r="D1948" t="inlineStr"/>
+      <c r="E1948" t="inlineStr"/>
+      <c r="F1948" t="inlineStr"/>
+      <c r="G1948" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>05:15 AM</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>Fed Musalem Speech</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr"/>
+      <c r="D1949" t="inlineStr"/>
+      <c r="E1949" t="inlineStr"/>
+      <c r="F1949" t="inlineStr"/>
+      <c r="G1949" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr"/>
+      <c r="C1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr"/>
+      <c r="E1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr"/>
+      <c r="G1950" t="inlineStr"/>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>Monday May 12 2025</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr"/>
+      <c r="C1951" t="inlineStr"/>
+      <c r="D1951" t="inlineStr"/>
+      <c r="E1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr"/>
+      <c r="G1951" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
@@ -51373,10 +51373,14 @@
           <t>Non Farm PayrollsAPR</t>
         </is>
       </c>
-      <c r="C1868" t="inlineStr"/>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>177K</t>
+        </is>
+      </c>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>228K</t>
+          <t>185K</t>
         </is>
       </c>
       <c r="E1868" t="inlineStr">
@@ -51406,7 +51410,11 @@
           <t>Unemployment RateAPR</t>
         </is>
       </c>
-      <c r="C1869" t="inlineStr"/>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="D1869" t="inlineStr">
         <is>
           <t>4.2%</t>
@@ -51439,7 +51447,11 @@
           <t>Average Hourly Earnings MoMAPR</t>
         </is>
       </c>
-      <c r="C1870" t="inlineStr"/>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="D1870" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -51472,7 +51484,11 @@
           <t>Average Hourly Earnings YoYAPR</t>
         </is>
       </c>
-      <c r="C1871" t="inlineStr"/>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="D1871" t="inlineStr">
         <is>
           <t>3.8%</t>
@@ -51505,7 +51521,11 @@
           <t>Participation RateAPR</t>
         </is>
       </c>
-      <c r="C1872" t="inlineStr"/>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>62.6%</t>
+        </is>
+      </c>
       <c r="D1872" t="inlineStr">
         <is>
           <t>62.5%</t>
@@ -51534,10 +51554,14 @@
           <t>Average Weekly HoursAPR</t>
         </is>
       </c>
-      <c r="C1873" t="inlineStr"/>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="E1873" t="inlineStr">
@@ -51567,10 +51591,14 @@
           <t>Government PayrollsAPR</t>
         </is>
       </c>
-      <c r="C1874" t="inlineStr"/>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr"/>
@@ -51596,10 +51624,14 @@
           <t>Manufacturing PayrollsAPR</t>
         </is>
       </c>
-      <c r="C1875" t="inlineStr"/>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>-1K</t>
+        </is>
+      </c>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>3K</t>
         </is>
       </c>
       <c r="E1875" t="inlineStr">
@@ -51629,10 +51661,14 @@
           <t>Nonfarm Payrolls PrivateAPR</t>
         </is>
       </c>
-      <c r="C1876" t="inlineStr"/>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>167K</t>
+        </is>
+      </c>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>209K</t>
+          <t>170K</t>
         </is>
       </c>
       <c r="E1876" t="inlineStr">
@@ -51662,7 +51698,11 @@
           <t>U-6 Unemployment RateAPR</t>
         </is>
       </c>
-      <c r="C1877" t="inlineStr"/>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="D1877" t="inlineStr">
         <is>
           <t>7.9%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
@@ -51723,33 +51723,33 @@
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr"/>
+          <t>Total Vehicle SalesAPR</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>17.27M</t>
+        </is>
+      </c>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>17.83M</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1878" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>15.7M</t>
+        </is>
+      </c>
+      <c r="F1878" t="inlineStr"/>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51761,50 +51761,62 @@
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr"/>
+          <t>Factory Orders MoMMAR</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1879" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
-        </is>
-      </c>
-      <c r="C1880" t="inlineStr"/>
+          <t>Factory Orders ex TransportationMAR</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="D1880" t="inlineStr">
         <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr">
-        <is>
-          <t>485</t>
-        </is>
-      </c>
-      <c r="F1880" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E1880" t="inlineStr"/>
+      <c r="F1880" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1880" t="inlineStr">
         <is>
           <t>3</t>
@@ -51819,16 +51831,20 @@
       </c>
       <c r="B1881" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/02</t>
         </is>
       </c>
       <c r="C1881" t="inlineStr"/>
       <c r="D1881" t="inlineStr">
         <is>
-          <t>587</t>
-        </is>
-      </c>
-      <c r="E1881" t="inlineStr"/>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E1881" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr">
         <is>
@@ -51837,23 +51853,23 @@
       </c>
     </row>
     <row r="1882">
-      <c r="A1882" t="inlineStr"/>
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>Baker Hughes Total Rigs CountMAY/02</t>
         </is>
       </c>
       <c r="C1882" t="inlineStr"/>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr"/>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr">
         <is>
@@ -52832,7 +52848,11 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="E1921" t="inlineStr"/>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1921" t="inlineStr">
         <is>
           <t>4.5%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1951"/>
+  <dimension ref="A1:G1955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53400,12 +53400,12 @@
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr"/>
@@ -53421,12 +53421,12 @@
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr"/>
@@ -53442,12 +53442,12 @@
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr"/>
@@ -53456,19 +53456,19 @@
       <c r="F1945" t="inlineStr"/>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr"/>
@@ -53477,32 +53477,40 @@
       <c r="F1946" t="inlineStr"/>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1947" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C1947" t="inlineStr"/>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr"/>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr"/>
@@ -53511,19 +53519,19 @@
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr"/>
@@ -53532,14 +53540,14 @@
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
+          <t>Saturday May 10 2025</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr"/>
@@ -53552,15 +53560,91 @@
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1951" t="inlineStr"/>
+          <t>05:15 AM</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr"/>
       <c r="F1951" t="inlineStr"/>
-      <c r="G1951" t="inlineStr"/>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>05:15 AM</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>Fed Hammack Speech</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr"/>
+      <c r="E1952" t="inlineStr"/>
+      <c r="F1952" t="inlineStr"/>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>05:15 AM</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>Fed Musalem Speech</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr"/>
+      <c r="E1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr"/>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr"/>
+      <c r="C1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr"/>
+      <c r="E1954" t="inlineStr"/>
+      <c r="F1954" t="inlineStr"/>
+      <c r="G1954" t="inlineStr"/>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>Monday May 12 2025</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr"/>
+      <c r="C1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr"/>
+      <c r="E1955" t="inlineStr"/>
+      <c r="F1955" t="inlineStr"/>
+      <c r="G1955" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1955"/>
+  <dimension ref="A1:G1958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53646,6 +53646,69 @@
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr"/>
     </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr"/>
+      <c r="E1956" t="inlineStr"/>
+      <c r="F1956" t="inlineStr"/>
+      <c r="G1956" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr"/>
+      <c r="D1957" t="inlineStr"/>
+      <c r="E1957" t="inlineStr"/>
+      <c r="F1957" t="inlineStr"/>
+      <c r="G1957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr"/>
+      <c r="D1958" t="inlineStr"/>
+      <c r="E1958" t="inlineStr"/>
+      <c r="F1958" t="inlineStr"/>
+      <c r="G1958" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
@@ -51834,7 +51834,11 @@
           <t>Baker Hughes Oil Rig CountMAY/02</t>
         </is>
       </c>
-      <c r="C1881" t="inlineStr"/>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
       <c r="D1881" t="inlineStr">
         <is>
           <t>483</t>
@@ -51863,7 +51867,11 @@
           <t>Baker Hughes Total Rigs CountMAY/02</t>
         </is>
       </c>
-      <c r="C1882" t="inlineStr"/>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
       <c r="D1882" t="inlineStr">
         <is>
           <t>587</t>
@@ -53514,7 +53522,11 @@
         </is>
       </c>
       <c r="C1948" t="inlineStr"/>
-      <c r="D1948" t="inlineStr"/>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr">
@@ -53535,7 +53547,11 @@
         </is>
       </c>
       <c r="C1949" t="inlineStr"/>
-      <c r="D1949" t="inlineStr"/>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1958"/>
+  <dimension ref="A1:G1959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53725,6 +53725,35 @@
         </is>
       </c>
     </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementAPR</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr"/>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>$-161B</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr"/>
+      <c r="F1959" t="inlineStr">
+        <is>
+          <t>$235.0B</t>
+        </is>
+      </c>
+      <c r="G1959" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
